--- a/sample files/schedule.xlsx
+++ b/sample files/schedule.xlsx
@@ -3362,10 +3362,10 @@
         <v>18</v>
       </c>
       <c r="AV34" s="4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AW34" s="5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX34" s="6" t="n">
         <v>13</v>
@@ -3878,10 +3878,10 @@
         <v>15</v>
       </c>
       <c r="AV40" s="4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AW40" s="5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX40" s="6" t="n">
         <v>14</v>
@@ -4406,10 +4406,10 @@
         <v>15</v>
       </c>
       <c r="AV46" s="4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AW46" s="5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX46" s="6" t="n">
         <v>11.5</v>
@@ -5002,10 +5002,10 @@
         <v>14</v>
       </c>
       <c r="AV54" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW54" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX54" s="6" t="n">
         <v>12</v>
@@ -5510,10 +5510,10 @@
         <v>15</v>
       </c>
       <c r="AV60" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW60" s="5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX60" s="6" t="n">
         <v>13.5</v>
